--- a/Proyecto/Documentacion/PREGAME/1. ELICITACION/1.6 Backlog/G4_Backlog-Sprint_v3.xlsx
+++ b/Proyecto/Documentacion/PREGAME/1. ELICITACION/1.6 Backlog/G4_Backlog-Sprint_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panch\Desktop\University\Semester-VI\Analisis\7185_G4\Proyecto\Documentacion\PREGAME\1. ELICITACION\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88AC57F-AB53-4462-B412-D713FEEF286E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9179C136-DD0A-4E62-B53C-E7E9EC99B01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -678,13 +678,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -693,7 +694,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,6 +782,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'burdonchart-sprint1'!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -794,29 +805,26 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'burdonchart-sprint1'!$B$24:$H$24</c:f>
+              <c:f>'burdonchart-sprint1'!$C$24:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -832,6 +840,18 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'burdonchart-sprint1'!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Estimadas
+Restantes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -844,29 +864,26 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'burdonchart-sprint1'!$B$25:$H$25</c:f>
+              <c:f>'burdonchart-sprint1'!$C$25:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1072,6 +1089,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'burdonchart-sprint2'!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -1146,6 +1174,18 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'burdonchart-sprint2'!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Estimadas
+Restantes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -1410,6 +1450,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'burdonchart-sprint3'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -1484,6 +1535,18 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'burdonchart-sprint3'!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Estimadas
+Restantes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -30099,6 +30162,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C32:F32"/>
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C8:F8"/>
@@ -30115,11 +30183,6 @@
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -30219,12 +30282,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="8" t="s">
         <v>109</v>
       </c>
@@ -30285,12 +30348,12 @@
         <f>CONCATENATE(B4,"_",A8)</f>
         <v>REQ007_3</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
@@ -30300,10 +30363,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="8"/>
       <c r="H9" s="5"/>
       <c r="I9" s="8"/>
@@ -30369,12 +30432,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="8" t="s">
         <v>109</v>
       </c>
@@ -30532,12 +30595,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
       <c r="G23" s="8" t="s">
         <v>109</v>
       </c>
@@ -30642,12 +30705,12 @@
         <f>CONCATENATE(B22,"_",A28)</f>
         <v>REQ009_5</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="4" t="s">
         <v>10</v>
       </c>
@@ -30717,12 +30780,12 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
       <c r="G33" s="8" t="s">
         <v>109</v>
       </c>
@@ -30739,7 +30802,7 @@
         <f>CONCATENATE(B32,"_",A34)</f>
         <v>REQ010_1</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="30" t="s">
         <v>145</v>
       </c>
       <c r="D34" s="25"/>
@@ -30761,7 +30824,7 @@
         <f>CONCATENATE(B32,"_",A35)</f>
         <v>REQ010_2</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="30" t="s">
         <v>146</v>
       </c>
       <c r="D35" s="25"/>
@@ -30783,7 +30846,7 @@
         <f>CONCATENATE(B32,"_",A36)</f>
         <v>REQ010_3</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="30" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="25"/>
@@ -30797,23 +30860,13 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C36:F36"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:F7"/>
@@ -30825,6 +30878,16 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C28:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30923,12 +30986,12 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="8" t="s">
         <v>109</v>
       </c>
@@ -30985,12 +31048,12 @@
         <f>CONCATENATE(B4,"_",A8)</f>
         <v>REQ011_3</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="21" t="s">
         <v>4</v>
       </c>
@@ -31062,12 +31125,12 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
       <c r="G13" s="8" t="s">
         <v>109</v>
       </c>
@@ -31124,12 +31187,12 @@
         <f>CONCATENATE(B12,"_",A16)</f>
         <v>REQ012_3</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="21" t="s">
         <v>4</v>
       </c>
@@ -31201,12 +31264,12 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
       <c r="G21" s="8" t="s">
         <v>109</v>
       </c>
@@ -31263,12 +31326,12 @@
         <f>CONCATENATE(B20,"_",A24)</f>
         <v>REQ013_3</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="21" t="s">
         <v>4</v>
       </c>
@@ -31357,12 +31420,12 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
       <c r="G30" s="8" t="s">
         <v>109</v>
       </c>
@@ -31419,12 +31482,12 @@
         <f>CONCATENATE(B29,"_",A33)</f>
         <v>REQ014_3</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="21" t="s">
         <v>4</v>
       </c>
@@ -31475,18 +31538,30 @@
         <f>CONCATENATE(B29,"_",A36)</f>
         <v>REQ014_6</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
       <c r="G36" s="21" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="C31:F31"/>
@@ -31494,18 +31569,6 @@
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -31530,7 +31593,7 @@
   </sheetPr>
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -59718,7 +59781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AD0B63-AC3F-471E-B34D-1DFEBD2B4B52}">
   <dimension ref="C3:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -60232,7 +60295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21E60C3-7604-4740-99A5-E321603AA6A4}">
   <dimension ref="C3:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -60325,7 +60388,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="19">
-        <f t="shared" ref="J4:J19" si="0">SUM(E5:I5)</f>
+        <f t="shared" ref="J5:J15" si="0">SUM(E5:I5)</f>
         <v>0</v>
       </c>
     </row>
@@ -60752,7 +60815,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="15">
-        <f t="shared" ref="F21:I21" si="2">F21-SUM(G4:G19)</f>
+        <f t="shared" ref="G21:I21" si="2">F21-SUM(G4:G19)</f>
         <v>0</v>
       </c>
       <c r="H21" s="15">
